--- a/features/backlog/android/free_bonus.xlsx
+++ b/features/backlog/android/free_bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\backlog\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C172022-E9CA-4D65-BCBA-FF30370D0BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DF7EF9-15B1-413C-A651-E560C1B987EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1527,8 +1527,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1644,7 +1644,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>60</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>62</v>
       </c>
@@ -1722,7 +1722,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>68</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>69</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>70</v>
       </c>
@@ -2010,7 +2010,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>71</v>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>72</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>73</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>74</v>
       </c>
@@ -2154,7 +2154,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>75</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>76</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -2334,7 +2334,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>81</v>
       </c>
@@ -2406,7 +2406,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>82</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>83</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>84</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>85</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>86</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>87</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>88</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>89</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>90</v>
       </c>
@@ -2730,7 +2730,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>91</v>
       </c>
@@ -2766,7 +2766,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>92</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>93</v>
       </c>
@@ -2838,7 +2838,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>94</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>95</v>
       </c>
@@ -2910,7 +2910,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>96</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>97</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>98</v>
       </c>
@@ -3018,7 +3018,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>99</v>
       </c>
@@ -3054,7 +3054,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>100</v>
       </c>
@@ -3090,7 +3090,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>101</v>
       </c>
@@ -3126,7 +3126,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>102</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>103</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>104</v>
       </c>
@@ -3234,7 +3234,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>105</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>106</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>107</v>
       </c>
@@ -3342,7 +3342,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>108</v>
       </c>
@@ -3378,7 +3378,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>109</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>110</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>133</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>134</v>
       </c>
@@ -3522,7 +3522,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>135</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>136</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>137</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>138</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>139</v>
       </c>
@@ -3702,7 +3702,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>140</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>141</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>142</v>
       </c>
@@ -3810,7 +3810,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>143</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>144</v>
       </c>
@@ -3882,7 +3882,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>145</v>
       </c>
@@ -3918,7 +3918,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>146</v>
       </c>
@@ -3954,7 +3954,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>148</v>
       </c>
@@ -3990,7 +3990,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>149</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>150</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>151</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>152</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>153</v>
       </c>
@@ -4170,7 +4170,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>154</v>
       </c>

--- a/features/backlog/android/free_bonus.xlsx
+++ b/features/backlog/android/free_bonus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\backlog\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DF7EF9-15B1-413C-A651-E560C1B987EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4EEBDF-D63C-4CBC-8683-2DDC106DC0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1526,8 +1526,8 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>

--- a/features/backlog/android/free_bonus.xlsx
+++ b/features/backlog/android/free_bonus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\backlog\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7434BDA5-C3FE-4473-A084-F9BA8D762DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D064FEA-CCE3-4F04-9639-566D5206FCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="216">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -50,69 +50,6 @@
   </si>
   <si>
     <t>Confirm that the redemption process is quick and responsive.</t>
-  </si>
-  <si>
-    <t>Verify that the redemption process remains consistent during system updates.</t>
-  </si>
-  <si>
-    <t>Test redeeming a referral code when the user has pending transactions.</t>
-  </si>
-  <si>
-    <t>Confirm that the system prompts for additional information if needed during redemption.</t>
-  </si>
-  <si>
-    <t>Check if the redemption process accounts for time zones and daylight saving time changes.</t>
-  </si>
-  <si>
-    <t>Verify that the redemption process is successful even if the user has pending notifications.</t>
-  </si>
-  <si>
-    <t>Test redeeming a referral code on different devices with varying screen sizes.</t>
-  </si>
-  <si>
-    <t>Confirm that the referral code redemption process is accessible for users with disabilities.</t>
-  </si>
-  <si>
-    <t>Check if the system prevents the redemption of a code that has already been used.</t>
-  </si>
-  <si>
-    <t>Verify that the redemption process is functional when the user has a slow internet connection.</t>
-  </si>
-  <si>
-    <t>Test redeeming a referral code with mixed upper and lower case characters.</t>
-  </si>
-  <si>
-    <t>Confirm that the system provides adequate error messages for unsuccessful redemption attempts.</t>
-  </si>
-  <si>
-    <t>Check if the system prevents the redemption of codes from unauthorized sources.</t>
-  </si>
-  <si>
-    <t>Verify that the redemption process is not affected by browser autofill features.</t>
-  </si>
-  <si>
-    <t>Test redeeming a referral code with different currencies.</t>
-  </si>
-  <si>
-    <t>Confirm that the referral code redemption process is GDPR compliant.</t>
-  </si>
-  <si>
-    <t>Check if the system allows redemption for users with different subscription plans.</t>
-  </si>
-  <si>
-    <t>Verify that the referral code redemption process does not interfere with account deletion.</t>
-  </si>
-  <si>
-    <t>Test redeeming a referral code after a user has changed their password.</t>
-  </si>
-  <si>
-    <t>Confirm that the system prevents the redemption of a code associated with a banned account.</t>
-  </si>
-  <si>
-    <t>Check if the referral code redemption process is compatible with various payment gateways.</t>
-  </si>
-  <si>
-    <t>Verify that the redemption process is compatible with different operating systems.</t>
   </si>
   <si>
     <t>SYMFREEBON-001</t>
@@ -275,9 +212,6 @@
 4. tap on the Redeen A Refer Code text on the bottom of referral.
 5. input redeem valid code to the referral code
 6. tap on the redeem </t>
-  </si>
-  <si>
-    <t>Attempt to redeem an invalid or expired referral code.</t>
   </si>
   <si>
     <t>Try redeeming a referral code that has already been used by the same user.</t>
@@ -707,12 +641,240 @@
 5. input redeem expired code to the referral code
 6. tap on the redeem </t>
   </si>
+  <si>
+    <t>verify that the redemption process remains consistent during system updates</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. login to the app
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem valid code to the referral code
+6. tap on the redeem while system is updating</t>
+  </si>
+  <si>
+    <t>test redeeming a referral code when the user has pending transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. login to the app user have a pending transaction
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem valid code to the referral code
+6. tap on the redeem </t>
+  </si>
+  <si>
+    <t>1. User Needs to Authenticated
+2. needs to have own refer code
+3. not redeemed before</t>
+  </si>
+  <si>
+    <t>confirm that the system prompts for additional information if needed during redemption</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> code should be successfully redeemed and promts a successful message</t>
+  </si>
+  <si>
+    <t>check if the redemption process accounts for time zones and daylight saving time changes</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. login to the app 
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem valid code to the referral code
+6. tap on the redeem for time zones and daylight saving time changes</t>
+  </si>
+  <si>
+    <t>verify that the redemption process is successful even if the user has pending notifications</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. login to the app
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem valid code to the referral code
+6. tap on the redeem while the user has pending notifications</t>
+  </si>
+  <si>
+    <t>code should be successfully redeemed and promts a successful message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. login to the app on the device with 9 inch screen size
+3. tap on free the bonus
+4. tap on the redeen a refer code text on the bottom of referral
+5. input redeem valid code to the referral code
+6. tap on the redeem </t>
+  </si>
+  <si>
+    <t>test redeeming a referral code on different devices with varying screen sizes</t>
+  </si>
+  <si>
+    <t>confirm that the referral code redemption process is accessible for users with disabilities</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. login to the app
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem valid code to the referral code
+6. tap on the redeem where users with disabilities</t>
+  </si>
+  <si>
+    <t>code should be successfully redeemed and promts a successful message while ui is easily used by user</t>
+  </si>
+  <si>
+    <t>check if the system prevents the redemption of a code that has already been used</t>
+  </si>
+  <si>
+    <t>1. User Needs to Authenticated
+2. needs to have own refer code
+3. redeemed before</t>
+  </si>
+  <si>
+    <t>code should not be successfully redeemed and promts a error message</t>
+  </si>
+  <si>
+    <t>verify that the redemption process is functional when the user has a slow internet connection</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. login to the app
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem valid code to the referral code
+6. tap on the redeem while user has a slow internet connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. login to the app
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem valid code to the referral code while code is different for uppercase or
+6. tap on the redeem </t>
+  </si>
+  <si>
+    <t>test redeeming a referral code with mixed upper and lower case characters</t>
+  </si>
+  <si>
+    <t>confirm that the system provides adequate error messages for unsuccessful redemption attempts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. login to the app
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem invalid code to the referral code
+6. tap on the redeem </t>
+  </si>
+  <si>
+    <t>check if the system prevents the redemption of codes from unauthorized sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. login to the app
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem valid code to the referral code while user have looged in background
+6. tap on the redeem </t>
+  </si>
+  <si>
+    <t>code should not be successfully redeemed and promts a error message related to the authorizarion</t>
+  </si>
+  <si>
+    <t>verify that the redemption process is not affected by browser autofill features</t>
+  </si>
+  <si>
+    <t>test redeeming a referral code with different currencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. login to the app
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem valid code to the referral code while user having different currencies
+6. tap on the redeem </t>
+  </si>
+  <si>
+    <t>confirm that the referral code redemption process is GDPR compliant</t>
+  </si>
+  <si>
+    <t>data should not breach</t>
+  </si>
+  <si>
+    <t>check if the system allows redemption for users with different subscription plans</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. login to the app
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem valid code to the referral code
+6. tap on the redeem
+7. logout from the account
+8. login with the another account with different plan
+9. repeat 4 - 6.</t>
+  </si>
+  <si>
+    <t>Verify that the referral code redemption process does not interfere with account deletion</t>
+  </si>
+  <si>
+    <t>test redeeming a referral code after a user has changed their password</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. login to the app
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem valid code to the referral code
+6. tap on the redeem
+7. logout from the account
+8. login by changing the password
+9. repeat 4 - 6.</t>
+  </si>
+  <si>
+    <t>confirm that the system prevents the redemption of a code associated with a banned account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. login to the app with inactive account
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem valid code to the referral code
+6. tap on the redeem </t>
+  </si>
+  <si>
+    <t>check if the referral code redemption process is compatible with various payment gateways</t>
+  </si>
+  <si>
+    <t>verify that the redemption process is compatible with different operating systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. login to the app from the android / iPhone / windows
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem valid code to the referral code
+6. tap on the redeem </t>
+  </si>
+  <si>
+    <t>attempt to redeem an invalid or expired referral code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. login to the app
+3. tap on free the bonus
+4. tap on the Redeen A Refer Code text on the bottom of referral.
+5. input redeem invalid or expired code to the referral code
+6. tap on the redeem </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -745,8 +907,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -757,6 +931,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -824,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -871,11 +1051,71 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="57">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -907,42 +1147,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1518,10 +1722,10 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1731,8 +1935,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1750,7 +1954,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1850,19 +2054,19 @@
     </row>
     <row r="4" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>7</v>
@@ -1892,19 +2096,19 @@
     </row>
     <row r="5" spans="1:26" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>7</v>
@@ -1932,19 +2136,19 @@
     </row>
     <row r="6" spans="1:26" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>7</v>
@@ -1972,19 +2176,19 @@
     </row>
     <row r="7" spans="1:26" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>7</v>
@@ -2012,19 +2216,19 @@
     </row>
     <row r="8" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>7</v>
@@ -2052,19 +2256,19 @@
     </row>
     <row r="9" spans="1:26" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>7</v>
@@ -2092,19 +2296,19 @@
     </row>
     <row r="10" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>7</v>
@@ -2132,19 +2336,19 @@
     </row>
     <row r="11" spans="1:26" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>7</v>
@@ -2172,19 +2376,19 @@
     </row>
     <row r="12" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>7</v>
@@ -2212,19 +2416,19 @@
     </row>
     <row r="13" spans="1:26" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>7</v>
@@ -2252,19 +2456,19 @@
     </row>
     <row r="14" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>7</v>
@@ -2292,19 +2496,19 @@
     </row>
     <row r="15" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>7</v>
@@ -2332,19 +2536,19 @@
     </row>
     <row r="16" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>7</v>
@@ -2372,19 +2576,19 @@
     </row>
     <row r="17" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>7</v>
@@ -2412,19 +2616,19 @@
     </row>
     <row r="18" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>7</v>
@@ -2452,19 +2656,19 @@
     </row>
     <row r="19" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>7</v>
@@ -2492,19 +2696,19 @@
     </row>
     <row r="20" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>7</v>
@@ -2532,19 +2736,19 @@
     </row>
     <row r="21" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="15"/>
@@ -2570,19 +2774,19 @@
     </row>
     <row r="22" spans="1:26" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="15"/>
@@ -2608,19 +2812,19 @@
     </row>
     <row r="23" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
@@ -2646,19 +2850,19 @@
     </row>
     <row r="24" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="15"/>
@@ -2684,19 +2888,19 @@
     </row>
     <row r="25" spans="1:26" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
@@ -2722,19 +2926,19 @@
     </row>
     <row r="26" spans="1:26" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="15"/>
@@ -2760,19 +2964,19 @@
     </row>
     <row r="27" spans="1:26" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="15"/>
@@ -2798,19 +3002,19 @@
     </row>
     <row r="28" spans="1:26" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="15"/>
@@ -2836,19 +3040,19 @@
     </row>
     <row r="29" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="15"/>
@@ -2874,19 +3078,19 @@
     </row>
     <row r="30" spans="1:26" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="15"/>
@@ -2912,19 +3116,19 @@
     </row>
     <row r="31" spans="1:26" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="15"/>
@@ -2950,19 +3154,19 @@
     </row>
     <row r="32" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="15"/>
@@ -2988,18 +3192,20 @@
     </row>
     <row r="33" spans="1:26" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="F33" s="13"/>
       <c r="G33" s="15"/>
       <c r="H33" s="1"/>
@@ -3024,18 +3230,20 @@
     </row>
     <row r="34" spans="1:26" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="14"/>
+        <v>173</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="F34" s="13"/>
       <c r="G34" s="15"/>
       <c r="H34" s="1"/>
@@ -3060,18 +3268,20 @@
     </row>
     <row r="35" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="F35" s="13"/>
       <c r="G35" s="15"/>
       <c r="H35" s="1"/>
@@ -3094,20 +3304,22 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="14"/>
+        <v>178</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="F36" s="13"/>
       <c r="G36" s="15"/>
       <c r="H36" s="1"/>
@@ -3132,18 +3344,20 @@
     </row>
     <row r="37" spans="1:26" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="F37" s="13"/>
       <c r="G37" s="15"/>
       <c r="H37" s="1"/>
@@ -3168,18 +3382,20 @@
     </row>
     <row r="38" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="14"/>
+        <v>182</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="F38" s="13"/>
       <c r="G38" s="15"/>
       <c r="H38" s="1"/>
@@ -3204,18 +3420,20 @@
     </row>
     <row r="39" spans="1:26" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="14"/>
+        <v>185</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="F39" s="13"/>
       <c r="G39" s="15"/>
       <c r="H39" s="1"/>
@@ -3240,18 +3458,20 @@
     </row>
     <row r="40" spans="1:26" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="F40" s="13"/>
       <c r="G40" s="15"/>
       <c r="H40" s="1"/>
@@ -3276,18 +3496,20 @@
     </row>
     <row r="41" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="14"/>
+        <v>191</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="F41" s="13"/>
       <c r="G41" s="15"/>
       <c r="H41" s="1"/>
@@ -3312,18 +3534,20 @@
     </row>
     <row r="42" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="14"/>
+        <v>192</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="F42" s="13"/>
       <c r="G42" s="15"/>
       <c r="H42" s="1"/>
@@ -3348,18 +3572,20 @@
     </row>
     <row r="43" spans="1:26" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="14"/>
+        <v>195</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="F43" s="13"/>
       <c r="G43" s="15"/>
       <c r="H43" s="1"/>
@@ -3382,20 +3608,22 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="F44" s="13"/>
       <c r="G44" s="15"/>
       <c r="H44" s="1"/>
@@ -3419,21 +3647,21 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="15"/>
+      <c r="A45" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3456,18 +3684,20 @@
     </row>
     <row r="46" spans="1:26" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="F46" s="13"/>
       <c r="G46" s="15"/>
       <c r="H46" s="1"/>
@@ -3492,18 +3722,20 @@
     </row>
     <row r="47" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>202</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>203</v>
+      </c>
       <c r="F47" s="13"/>
       <c r="G47" s="15"/>
       <c r="H47" s="1"/>
@@ -3526,20 +3758,22 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="F48" s="13"/>
       <c r="G48" s="15"/>
       <c r="H48" s="1"/>
@@ -3562,20 +3796,22 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="F49" s="13"/>
       <c r="G49" s="15"/>
       <c r="H49" s="1"/>
@@ -3598,20 +3834,22 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="F50" s="13"/>
       <c r="G50" s="15"/>
       <c r="H50" s="1"/>
@@ -3636,18 +3874,20 @@
     </row>
     <row r="51" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="F51" s="13"/>
       <c r="G51" s="15"/>
       <c r="H51" s="1"/>
@@ -3671,21 +3911,21 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="15"/>
+      <c r="A52" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3708,18 +3948,20 @@
     </row>
     <row r="53" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="F53" s="13"/>
       <c r="G53" s="15"/>
       <c r="H53" s="1"/>
@@ -3744,18 +3986,20 @@
     </row>
     <row r="54" spans="1:26" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="F54" s="10"/>
       <c r="G54" s="12"/>
       <c r="H54" s="1"/>
@@ -3780,16 +4024,16 @@
     </row>
     <row r="55" spans="1:26" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="10"/>
@@ -3816,16 +4060,16 @@
     </row>
     <row r="56" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="10"/>
@@ -3852,16 +4096,16 @@
     </row>
     <row r="57" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="10"/>
@@ -3888,16 +4132,16 @@
     </row>
     <row r="58" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="10"/>
@@ -3924,16 +4168,16 @@
     </row>
     <row r="59" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="10"/>
@@ -3960,16 +4204,16 @@
     </row>
     <row r="60" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="10"/>
@@ -3996,16 +4240,16 @@
     </row>
     <row r="61" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="10"/>
@@ -4032,16 +4276,16 @@
     </row>
     <row r="62" spans="1:26" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="10"/>
@@ -4068,16 +4312,16 @@
     </row>
     <row r="63" spans="1:26" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="10"/>
@@ -4104,16 +4348,16 @@
     </row>
     <row r="64" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="10"/>
@@ -4140,16 +4384,16 @@
     </row>
     <row r="65" spans="1:26" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="10"/>
@@ -4176,16 +4420,16 @@
     </row>
     <row r="66" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="10"/>
@@ -4212,16 +4456,16 @@
     </row>
     <row r="67" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="10"/>
@@ -4248,16 +4492,16 @@
     </row>
     <row r="68" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="13"/>
@@ -4284,16 +4528,16 @@
     </row>
     <row r="69" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="13"/>
@@ -4320,16 +4564,16 @@
     </row>
     <row r="70" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="13"/>
@@ -4356,16 +4600,16 @@
     </row>
     <row r="71" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="13"/>
@@ -4392,16 +4636,16 @@
     </row>
     <row r="72" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="13"/>
@@ -4428,16 +4672,16 @@
     </row>
     <row r="73" spans="1:26" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="13"/>
@@ -4464,16 +4708,16 @@
     </row>
     <row r="74" spans="1:26" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="13"/>
